--- a/OriginTable/EnterList.xlsx
+++ b/OriginTable/EnterList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="EnterList" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -50,6 +50,24 @@
   </si>
   <si>
     <t>使用后不进入弃牌堆，从牌库中移除</t>
+  </si>
+  <si>
+    <t>躁狂</t>
+  </si>
+  <si>
+    <t>骰出的点数比层数低时，san值改变均+当回合骰面点数\nSan值降低时，层数-1.</t>
+  </si>
+  <si>
+    <t>入梦</t>
+  </si>
+  <si>
+    <t>每回合安抚值不会消失。</t>
+  </si>
+  <si>
+    <t>安抚值</t>
+  </si>
+  <si>
+    <t>当警戒度上升时，优先扣除安抚值数值。回合结束时安抚值消失。</t>
   </si>
 </sst>
 </file>
@@ -62,7 +80,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,11 +90,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -549,145 +572,154 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1000,20 +1032,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="7.625" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="33.75" customWidth="1"/>
+    <col min="3" max="3" width="74.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" ht="16.5" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1024,7 +1056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" ht="16.5" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1035,7 +1067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" ht="16.5" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1046,26 +1078,59 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
+    <row r="4" ht="16.5" spans="1:3">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
+    <row r="5" ht="16.5" spans="1:3">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:3">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:3">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:3">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/OriginTable/EnterList.xlsx
+++ b/OriginTable/EnterList.xlsx
@@ -28,10 +28,10 @@
     <t>词条ID</t>
   </si>
   <si>
-    <t>词条标题</t>
-  </si>
-  <si>
-    <t>词条描述</t>
+    <t>&amp;词条标题</t>
+  </si>
+  <si>
+    <t>&amp;词条描述</t>
   </si>
   <si>
     <t>int</t>
@@ -702,7 +702,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -710,9 +710,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1035,7 +1032,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
@@ -1082,10 +1079,10 @@
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1093,10 +1090,10 @@
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1104,10 +1101,10 @@
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1115,10 +1112,10 @@
       <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1126,10 +1123,10 @@
       <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
     </row>

--- a/OriginTable/EnterList.xlsx
+++ b/OriginTable/EnterList.xlsx
@@ -55,7 +55,7 @@
     <t>躁狂</t>
   </si>
   <si>
-    <t>骰出的点数比层数低时，san值改变均+当回合骰面点数\nSan值降低时，层数-1.</t>
+    <t>骰出的点数比层数低时，理智改变均+当回合骰面点数\n理智降低时，层数-1.</t>
   </si>
   <si>
     <t>入梦</t>
@@ -1032,7 +1032,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
